--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\code\elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF411D08-0CD0-41F1-8B78-C2B9B848560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B8295-2F53-4E18-9020-10C761EBC874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{94049647-D43A-46CF-9E62-953F3EECC647}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{94049647-D43A-46CF-9E62-953F3EECC647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="alliances" sheetId="5" r:id="rId2"/>
+    <sheet name="raw" sheetId="2" r:id="rId3"/>
+    <sheet name="parties" sheetId="4" r:id="rId4"/>
+    <sheet name="districts" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">parties!$B$1:$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1199">
   <si>
     <t>Sno</t>
   </si>
@@ -3622,6 +3628,30 @@
   </si>
   <si>
     <t>Thoothukudi</t>
+  </si>
+  <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>DMK+</t>
+  </si>
+  <si>
+    <t>AIADMK+</t>
+  </si>
+  <si>
+    <t>TVK</t>
+  </si>
+  <si>
+    <t>NTK</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>alliance_id</t>
+  </si>
+  <si>
+    <t>TVK+</t>
   </si>
 </sst>
 </file>
@@ -3940,7 +3970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4093,6 +4123,55 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4117,55 +4196,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8623,11 +8657,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECA04D6-D88C-4986-AE92-E0E98544D140}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("{'alliance_id': '", A2, "', 'alliance_name': '", B2, "'},")</f>
+        <v>{'alliance_id': '1', 'alliance_name': 'DMK+'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">CONCATENATE("{'alliance_id': '", A3, "', 'alliance_name': '", B3, "'},")</f>
+        <v>{'alliance_id': '2', 'alliance_name': 'AIADMK+'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" ref="A4:A6" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'alliance_id': '3', 'alliance_name': 'TVK+'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'alliance_id': '4', 'alliance_name': 'NTK'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'alliance_id': '5', 'alliance_name': 'Others'},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DFAEC1-21FB-45B5-B425-35C2EA7E1137}">
   <dimension ref="A1:P283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P283"/>
+    <sheetView topLeftCell="A164" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F169" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8642,46 +8755,46 @@
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1"/>
     <row r="3" spans="1:16" ht="15" thickBot="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="69" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="72" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="72" t="s">
         <v>469</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8698,11 +8811,11 @@
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="8" t="s">
         <v>475</v>
       </c>
@@ -8712,36 +8825,36 @@
       <c r="J5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="57"/>
+      <c r="L5" s="74"/>
       <c r="M5" s="8" t="s">
         <v>475</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="O5" s="59"/>
+      <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:16" ht="43.8" thickBot="1">
       <c r="A7" s="9">
@@ -9026,23 +9139,23 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="54" t="s">
         <v>1175</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="76"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:16" ht="43.8" thickBot="1">
       <c r="A14" s="9">
@@ -10079,23 +10192,23 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="76"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
     </row>
     <row r="37" spans="1:16" ht="43.8" thickBot="1">
       <c r="A37" s="9">
@@ -10145,23 +10258,23 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:16" ht="43.8" thickBot="1">
       <c r="A39" s="9">
@@ -10446,23 +10559,23 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="76"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="56"/>
     </row>
     <row r="46" spans="1:16" ht="29.4" thickBot="1">
       <c r="A46" s="9">
@@ -10559,23 +10672,23 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" thickBot="1">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="76"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A49" s="9">
@@ -10766,23 +10879,23 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="54" t="s">
         <v>603</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="76"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="56"/>
     </row>
     <row r="54" spans="1:16" ht="29.4" thickBot="1">
       <c r="A54" s="9">
@@ -11020,23 +11133,23 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="15" thickBot="1">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="54" t="s">
         <v>1176</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="76"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="56"/>
     </row>
     <row r="60" spans="1:16" ht="53.4" thickBot="1">
       <c r="A60" s="9">
@@ -11227,23 +11340,23 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="15" thickBot="1">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="76"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="56"/>
     </row>
     <row r="65" spans="1:16" ht="43.8" thickBot="1">
       <c r="A65" s="9">
@@ -11528,23 +11641,23 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="15" thickBot="1">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="76"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="56"/>
     </row>
     <row r="72" spans="1:16" ht="43.8" thickBot="1">
       <c r="A72" s="9">
@@ -11782,23 +11895,23 @@
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" thickBot="1">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="76"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="56"/>
     </row>
     <row r="78" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A78" s="9">
@@ -12177,23 +12290,23 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="15" thickBot="1">
-      <c r="A86" s="74" t="s">
+      <c r="A86" s="54" t="s">
         <v>696</v>
       </c>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="76"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="56"/>
     </row>
     <row r="87" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A87" s="9">
@@ -12440,7 +12553,7 @@
       <c r="C92" s="9">
         <v>82.45</v>
       </c>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="53" t="s">
         <v>1174</v>
       </c>
       <c r="E92" s="11"/>
@@ -12525,23 +12638,23 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="15" thickBot="1">
-      <c r="A94" s="74" t="s">
+      <c r="A94" s="54" t="s">
         <v>1177</v>
       </c>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="76"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="56"/>
     </row>
     <row r="95" spans="1:16" ht="43.8" thickBot="1">
       <c r="A95" s="9">
@@ -12732,23 +12845,23 @@
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" thickBot="1">
-      <c r="A99" s="74" t="s">
+      <c r="A99" s="54" t="s">
         <v>1178</v>
       </c>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="76"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="56"/>
     </row>
     <row r="100" spans="1:16" ht="43.8" thickBot="1">
       <c r="A100" s="9">
@@ -13268,23 +13381,23 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="15" thickBot="1">
-      <c r="A111" s="74" t="s">
+      <c r="A111" s="54" t="s">
         <v>751</v>
       </c>
-      <c r="B111" s="75"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="76"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="55"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="56"/>
     </row>
     <row r="112" spans="1:16" ht="43.8" thickBot="1">
       <c r="A112" s="9">
@@ -13569,23 +13682,23 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="15" thickBot="1">
-      <c r="A118" s="74" t="s">
+      <c r="A118" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="B118" s="75"/>
-      <c r="C118" s="75"/>
-      <c r="D118" s="75"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="75"/>
-      <c r="G118" s="75"/>
-      <c r="H118" s="75"/>
-      <c r="I118" s="75"/>
-      <c r="J118" s="75"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="76"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="56"/>
     </row>
     <row r="119" spans="1:16" ht="29.4" thickBot="1">
       <c r="A119" s="9">
@@ -13597,7 +13710,7 @@
       <c r="C119" s="9">
         <v>66.56</v>
       </c>
-      <c r="D119" s="72" t="s">
+      <c r="D119" s="53" t="s">
         <v>1173</v>
       </c>
       <c r="E119" s="11"/>
@@ -13729,23 +13842,23 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="15" thickBot="1">
-      <c r="A122" s="74" t="s">
+      <c r="A122" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="75"/>
-      <c r="F122" s="75"/>
-      <c r="G122" s="75"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="75"/>
-      <c r="J122" s="75"/>
-      <c r="K122" s="75"/>
-      <c r="L122" s="75"/>
-      <c r="M122" s="75"/>
-      <c r="N122" s="75"/>
-      <c r="O122" s="76"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="55"/>
+      <c r="M122" s="55"/>
+      <c r="N122" s="55"/>
+      <c r="O122" s="56"/>
     </row>
     <row r="123" spans="1:16" ht="29.4" thickBot="1">
       <c r="A123" s="9">
@@ -13842,23 +13955,23 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="15" thickBot="1">
-      <c r="A125" s="74" t="s">
+      <c r="A125" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="B125" s="75"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="75"/>
-      <c r="E125" s="75"/>
-      <c r="F125" s="75"/>
-      <c r="G125" s="75"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="75"/>
-      <c r="K125" s="75"/>
-      <c r="L125" s="75"/>
-      <c r="M125" s="75"/>
-      <c r="N125" s="75"/>
-      <c r="O125" s="76"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="55"/>
+      <c r="L125" s="55"/>
+      <c r="M125" s="55"/>
+      <c r="N125" s="55"/>
+      <c r="O125" s="56"/>
     </row>
     <row r="126" spans="1:16" ht="43.8" thickBot="1">
       <c r="A126" s="9">
@@ -14096,23 +14209,23 @@
       </c>
     </row>
     <row r="131" spans="1:16" ht="15" thickBot="1">
-      <c r="A131" s="74" t="s">
+      <c r="A131" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="75"/>
-      <c r="E131" s="75"/>
-      <c r="F131" s="75"/>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="76"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="55"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="55"/>
+      <c r="M131" s="55"/>
+      <c r="N131" s="55"/>
+      <c r="O131" s="56"/>
     </row>
     <row r="132" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A132" s="9">
@@ -14256,23 +14369,23 @@
       </c>
     </row>
     <row r="135" spans="1:16" ht="15" thickBot="1">
-      <c r="A135" s="74" t="s">
+      <c r="A135" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="B135" s="75"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="75"/>
-      <c r="E135" s="75"/>
-      <c r="F135" s="75"/>
-      <c r="G135" s="75"/>
-      <c r="H135" s="75"/>
-      <c r="I135" s="75"/>
-      <c r="J135" s="75"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="75"/>
-      <c r="M135" s="75"/>
-      <c r="N135" s="75"/>
-      <c r="O135" s="76"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="55"/>
+      <c r="J135" s="55"/>
+      <c r="K135" s="55"/>
+      <c r="L135" s="55"/>
+      <c r="M135" s="55"/>
+      <c r="N135" s="55"/>
+      <c r="O135" s="56"/>
     </row>
     <row r="136" spans="1:16" ht="66.599999999999994" thickBot="1">
       <c r="A136" s="9">
@@ -14322,23 +14435,23 @@
       </c>
     </row>
     <row r="137" spans="1:16" ht="15" thickBot="1">
-      <c r="A137" s="74" t="s">
+      <c r="A137" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="B137" s="75"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="75"/>
-      <c r="E137" s="75"/>
-      <c r="F137" s="75"/>
-      <c r="G137" s="75"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="75"/>
-      <c r="J137" s="75"/>
-      <c r="K137" s="75"/>
-      <c r="L137" s="75"/>
-      <c r="M137" s="75"/>
-      <c r="N137" s="75"/>
-      <c r="O137" s="76"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="55"/>
+      <c r="K137" s="55"/>
+      <c r="L137" s="55"/>
+      <c r="M137" s="55"/>
+      <c r="N137" s="55"/>
+      <c r="O137" s="56"/>
     </row>
     <row r="138" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A138" s="9">
@@ -14529,23 +14642,23 @@
       </c>
     </row>
     <row r="142" spans="1:16" ht="15" thickBot="1">
-      <c r="A142" s="74" t="s">
+      <c r="A142" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="B142" s="75"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="75"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="75"/>
-      <c r="G142" s="75"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="75"/>
-      <c r="J142" s="75"/>
-      <c r="K142" s="75"/>
-      <c r="L142" s="75"/>
-      <c r="M142" s="75"/>
-      <c r="N142" s="75"/>
-      <c r="O142" s="76"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="55"/>
+      <c r="J142" s="55"/>
+      <c r="K142" s="55"/>
+      <c r="L142" s="55"/>
+      <c r="M142" s="55"/>
+      <c r="N142" s="55"/>
+      <c r="O142" s="56"/>
     </row>
     <row r="143" spans="1:16" ht="43.8" thickBot="1">
       <c r="A143" s="9">
@@ -14971,23 +15084,23 @@
       </c>
     </row>
     <row r="152" spans="1:16" ht="15" thickBot="1">
-      <c r="A152" s="74" t="s">
+      <c r="A152" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="B152" s="75"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="75"/>
-      <c r="F152" s="75"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="75"/>
-      <c r="I152" s="75"/>
-      <c r="J152" s="75"/>
-      <c r="K152" s="75"/>
-      <c r="L152" s="75"/>
-      <c r="M152" s="75"/>
-      <c r="N152" s="75"/>
-      <c r="O152" s="76"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="55"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="55"/>
+      <c r="J152" s="55"/>
+      <c r="K152" s="55"/>
+      <c r="L152" s="55"/>
+      <c r="M152" s="55"/>
+      <c r="N152" s="55"/>
+      <c r="O152" s="56"/>
     </row>
     <row r="153" spans="1:16" ht="58.2" thickBot="1">
       <c r="A153" s="9">
@@ -15084,23 +15197,23 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="15" thickBot="1">
-      <c r="A155" s="74" t="s">
+      <c r="A155" s="54" t="s">
         <v>865</v>
       </c>
-      <c r="B155" s="75"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="75"/>
-      <c r="E155" s="75"/>
-      <c r="F155" s="75"/>
-      <c r="G155" s="75"/>
-      <c r="H155" s="75"/>
-      <c r="I155" s="75"/>
-      <c r="J155" s="75"/>
-      <c r="K155" s="75"/>
-      <c r="L155" s="75"/>
-      <c r="M155" s="75"/>
-      <c r="N155" s="75"/>
-      <c r="O155" s="76"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="55"/>
+      <c r="J155" s="55"/>
+      <c r="K155" s="55"/>
+      <c r="L155" s="55"/>
+      <c r="M155" s="55"/>
+      <c r="N155" s="55"/>
+      <c r="O155" s="56"/>
     </row>
     <row r="156" spans="1:16" ht="43.8" thickBot="1">
       <c r="A156" s="9">
@@ -15432,23 +15545,23 @@
       </c>
     </row>
     <row r="163" spans="1:16" ht="15" thickBot="1">
-      <c r="A163" s="74" t="s">
+      <c r="A163" s="54" t="s">
         <v>874</v>
       </c>
-      <c r="B163" s="75"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="75"/>
-      <c r="E163" s="75"/>
-      <c r="F163" s="75"/>
-      <c r="G163" s="75"/>
-      <c r="H163" s="75"/>
-      <c r="I163" s="75"/>
-      <c r="J163" s="75"/>
-      <c r="K163" s="75"/>
-      <c r="L163" s="75"/>
-      <c r="M163" s="75"/>
-      <c r="N163" s="75"/>
-      <c r="O163" s="76"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="55"/>
+      <c r="G163" s="55"/>
+      <c r="H163" s="55"/>
+      <c r="I163" s="55"/>
+      <c r="J163" s="55"/>
+      <c r="K163" s="55"/>
+      <c r="L163" s="55"/>
+      <c r="M163" s="55"/>
+      <c r="N163" s="55"/>
+      <c r="O163" s="56"/>
     </row>
     <row r="164" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A164" s="9">
@@ -15639,23 +15752,23 @@
       </c>
     </row>
     <row r="168" spans="1:16" ht="15" thickBot="1">
-      <c r="A168" s="74" t="s">
+      <c r="A168" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="B168" s="75"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="75"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="75"/>
-      <c r="L168" s="75"/>
-      <c r="M168" s="75"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="76"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="55"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="55"/>
+      <c r="K168" s="55"/>
+      <c r="L168" s="55"/>
+      <c r="M168" s="55"/>
+      <c r="N168" s="55"/>
+      <c r="O168" s="56"/>
     </row>
     <row r="169" spans="1:16" ht="29.4" thickBot="1">
       <c r="A169" s="9">
@@ -16081,23 +16194,23 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="15" thickBot="1">
-      <c r="A178" s="74" t="s">
+      <c r="A178" s="54" t="s">
         <v>1184</v>
       </c>
-      <c r="B178" s="75"/>
-      <c r="C178" s="75"/>
-      <c r="D178" s="75"/>
-      <c r="E178" s="75"/>
-      <c r="F178" s="75"/>
-      <c r="G178" s="75"/>
-      <c r="H178" s="75"/>
-      <c r="I178" s="75"/>
-      <c r="J178" s="75"/>
-      <c r="K178" s="75"/>
-      <c r="L178" s="75"/>
-      <c r="M178" s="75"/>
-      <c r="N178" s="75"/>
-      <c r="O178" s="76"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="55"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="55"/>
+      <c r="I178" s="55"/>
+      <c r="J178" s="55"/>
+      <c r="K178" s="55"/>
+      <c r="L178" s="55"/>
+      <c r="M178" s="55"/>
+      <c r="N178" s="55"/>
+      <c r="O178" s="56"/>
     </row>
     <row r="179" spans="1:16" ht="43.8" thickBot="1">
       <c r="A179" s="9">
@@ -16194,23 +16307,23 @@
       </c>
     </row>
     <row r="181" spans="1:16" ht="15" thickBot="1">
-      <c r="A181" s="74" t="s">
+      <c r="A181" s="54" t="s">
         <v>917</v>
       </c>
-      <c r="B181" s="75"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="75"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="75"/>
-      <c r="G181" s="75"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="75"/>
-      <c r="J181" s="75"/>
-      <c r="K181" s="75"/>
-      <c r="L181" s="75"/>
-      <c r="M181" s="75"/>
-      <c r="N181" s="75"/>
-      <c r="O181" s="76"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="55"/>
+      <c r="L181" s="55"/>
+      <c r="M181" s="55"/>
+      <c r="N181" s="55"/>
+      <c r="O181" s="56"/>
     </row>
     <row r="182" spans="1:16" ht="58.2" thickBot="1">
       <c r="A182" s="9">
@@ -16307,23 +16420,23 @@
       </c>
     </row>
     <row r="184" spans="1:16" ht="15" thickBot="1">
-      <c r="A184" s="74" t="s">
+      <c r="A184" s="54" t="s">
         <v>934</v>
       </c>
-      <c r="B184" s="75"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="75"/>
-      <c r="E184" s="75"/>
-      <c r="F184" s="75"/>
-      <c r="G184" s="75"/>
-      <c r="H184" s="75"/>
-      <c r="I184" s="75"/>
-      <c r="J184" s="75"/>
-      <c r="K184" s="75"/>
-      <c r="L184" s="75"/>
-      <c r="M184" s="75"/>
-      <c r="N184" s="75"/>
-      <c r="O184" s="76"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="55"/>
+      <c r="L184" s="55"/>
+      <c r="M184" s="55"/>
+      <c r="N184" s="55"/>
+      <c r="O184" s="56"/>
     </row>
     <row r="185" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A185" s="9">
@@ -16749,23 +16862,23 @@
       </c>
     </row>
     <row r="194" spans="1:16" ht="15" thickBot="1">
-      <c r="A194" s="74" t="s">
+      <c r="A194" s="54" t="s">
         <v>952</v>
       </c>
-      <c r="B194" s="75"/>
-      <c r="C194" s="75"/>
-      <c r="D194" s="75"/>
-      <c r="E194" s="75"/>
-      <c r="F194" s="75"/>
-      <c r="G194" s="75"/>
-      <c r="H194" s="75"/>
-      <c r="I194" s="75"/>
-      <c r="J194" s="75"/>
-      <c r="K194" s="75"/>
-      <c r="L194" s="75"/>
-      <c r="M194" s="75"/>
-      <c r="N194" s="75"/>
-      <c r="O194" s="76"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="55"/>
+      <c r="L194" s="55"/>
+      <c r="M194" s="55"/>
+      <c r="N194" s="55"/>
+      <c r="O194" s="56"/>
     </row>
     <row r="195" spans="1:16" ht="43.8" thickBot="1">
       <c r="A195" s="9">
@@ -16909,23 +17022,23 @@
       </c>
     </row>
     <row r="198" spans="1:16" ht="15" thickBot="1">
-      <c r="A198" s="74" t="s">
+      <c r="A198" s="54" t="s">
         <v>958</v>
       </c>
-      <c r="B198" s="75"/>
-      <c r="C198" s="75"/>
-      <c r="D198" s="75"/>
-      <c r="E198" s="75"/>
-      <c r="F198" s="75"/>
-      <c r="G198" s="75"/>
-      <c r="H198" s="75"/>
-      <c r="I198" s="75"/>
-      <c r="J198" s="75"/>
-      <c r="K198" s="75"/>
-      <c r="L198" s="75"/>
-      <c r="M198" s="75"/>
-      <c r="N198" s="75"/>
-      <c r="O198" s="76"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="55"/>
+      <c r="L198" s="55"/>
+      <c r="M198" s="55"/>
+      <c r="N198" s="55"/>
+      <c r="O198" s="56"/>
     </row>
     <row r="199" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A199" s="9">
@@ -17069,23 +17182,23 @@
       </c>
     </row>
     <row r="202" spans="1:16" ht="15" thickBot="1">
-      <c r="A202" s="74" t="s">
+      <c r="A202" s="54" t="s">
         <v>1185</v>
       </c>
-      <c r="B202" s="75"/>
-      <c r="C202" s="75"/>
-      <c r="D202" s="75"/>
-      <c r="E202" s="75"/>
-      <c r="F202" s="75"/>
-      <c r="G202" s="75"/>
-      <c r="H202" s="75"/>
-      <c r="I202" s="75"/>
-      <c r="J202" s="75"/>
-      <c r="K202" s="75"/>
-      <c r="L202" s="75"/>
-      <c r="M202" s="75"/>
-      <c r="N202" s="75"/>
-      <c r="O202" s="76"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="55"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="55"/>
+      <c r="G202" s="55"/>
+      <c r="H202" s="55"/>
+      <c r="I202" s="55"/>
+      <c r="J202" s="55"/>
+      <c r="K202" s="55"/>
+      <c r="L202" s="55"/>
+      <c r="M202" s="55"/>
+      <c r="N202" s="55"/>
+      <c r="O202" s="56"/>
     </row>
     <row r="203" spans="1:16" ht="43.8" thickBot="1">
       <c r="A203" s="9">
@@ -17276,23 +17389,23 @@
       </c>
     </row>
     <row r="207" spans="1:16" ht="15" thickBot="1">
-      <c r="A207" s="74" t="s">
+      <c r="A207" s="54" t="s">
         <v>991</v>
       </c>
-      <c r="B207" s="75"/>
-      <c r="C207" s="75"/>
-      <c r="D207" s="75"/>
-      <c r="E207" s="75"/>
-      <c r="F207" s="75"/>
-      <c r="G207" s="75"/>
-      <c r="H207" s="75"/>
-      <c r="I207" s="75"/>
-      <c r="J207" s="75"/>
-      <c r="K207" s="75"/>
-      <c r="L207" s="75"/>
-      <c r="M207" s="75"/>
-      <c r="N207" s="75"/>
-      <c r="O207" s="76"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
+      <c r="G207" s="55"/>
+      <c r="H207" s="55"/>
+      <c r="I207" s="55"/>
+      <c r="J207" s="55"/>
+      <c r="K207" s="55"/>
+      <c r="L207" s="55"/>
+      <c r="M207" s="55"/>
+      <c r="N207" s="55"/>
+      <c r="O207" s="56"/>
     </row>
     <row r="208" spans="1:16" ht="43.8" thickBot="1">
       <c r="A208" s="9">
@@ -17671,23 +17784,23 @@
       </c>
     </row>
     <row r="216" spans="1:16" ht="15" thickBot="1">
-      <c r="A216" s="74" t="s">
+      <c r="A216" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="B216" s="75"/>
-      <c r="C216" s="75"/>
-      <c r="D216" s="75"/>
-      <c r="E216" s="75"/>
-      <c r="F216" s="75"/>
-      <c r="G216" s="75"/>
-      <c r="H216" s="75"/>
-      <c r="I216" s="75"/>
-      <c r="J216" s="75"/>
-      <c r="K216" s="75"/>
-      <c r="L216" s="75"/>
-      <c r="M216" s="75"/>
-      <c r="N216" s="75"/>
-      <c r="O216" s="76"/>
+      <c r="B216" s="55"/>
+      <c r="C216" s="55"/>
+      <c r="D216" s="55"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="55"/>
+      <c r="G216" s="55"/>
+      <c r="H216" s="55"/>
+      <c r="I216" s="55"/>
+      <c r="J216" s="55"/>
+      <c r="K216" s="55"/>
+      <c r="L216" s="55"/>
+      <c r="M216" s="55"/>
+      <c r="N216" s="55"/>
+      <c r="O216" s="56"/>
     </row>
     <row r="217" spans="1:16" ht="43.8" thickBot="1">
       <c r="A217" s="9">
@@ -17972,23 +18085,23 @@
       </c>
     </row>
     <row r="223" spans="1:16" ht="15" thickBot="1">
-      <c r="A223" s="74" t="s">
+      <c r="A223" s="54" t="s">
         <v>1187</v>
       </c>
-      <c r="B223" s="75"/>
-      <c r="C223" s="75"/>
-      <c r="D223" s="75"/>
-      <c r="E223" s="75"/>
-      <c r="F223" s="75"/>
-      <c r="G223" s="75"/>
-      <c r="H223" s="75"/>
-      <c r="I223" s="75"/>
-      <c r="J223" s="75"/>
-      <c r="K223" s="75"/>
-      <c r="L223" s="75"/>
-      <c r="M223" s="75"/>
-      <c r="N223" s="75"/>
-      <c r="O223" s="76"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="55"/>
+      <c r="G223" s="55"/>
+      <c r="H223" s="55"/>
+      <c r="I223" s="55"/>
+      <c r="J223" s="55"/>
+      <c r="K223" s="55"/>
+      <c r="L223" s="55"/>
+      <c r="M223" s="55"/>
+      <c r="N223" s="55"/>
+      <c r="O223" s="56"/>
     </row>
     <row r="224" spans="1:16" ht="29.4" thickBot="1">
       <c r="A224" s="9">
@@ -18038,45 +18151,45 @@
       </c>
     </row>
     <row r="225" spans="1:16" ht="28.8">
-      <c r="A225" s="60">
+      <c r="A225" s="63">
         <v>185</v>
       </c>
       <c r="B225" s="29" t="s">
         <v>1023</v>
       </c>
-      <c r="C225" s="60">
+      <c r="C225" s="63">
         <v>72.239999999999995</v>
       </c>
-      <c r="D225" s="62" t="s">
+      <c r="D225" s="59" t="s">
         <v>1025</v>
       </c>
-      <c r="E225" s="64"/>
-      <c r="F225" s="62" t="s">
+      <c r="E225" s="67"/>
+      <c r="F225" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G225" s="29">
         <v>1</v>
       </c>
-      <c r="H225" s="66">
+      <c r="H225" s="61">
         <v>103682</v>
       </c>
-      <c r="I225" s="60">
+      <c r="I225" s="63">
         <v>49.19</v>
       </c>
-      <c r="J225" s="60" t="s">
+      <c r="J225" s="63" t="s">
         <v>1026</v>
       </c>
-      <c r="K225" s="70"/>
-      <c r="L225" s="62" t="s">
+      <c r="K225" s="57"/>
+      <c r="L225" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="M225" s="66">
+      <c r="M225" s="61">
         <v>66308</v>
       </c>
-      <c r="N225" s="60">
+      <c r="N225" s="63">
         <v>31.46</v>
       </c>
-      <c r="O225" s="68">
+      <c r="O225" s="65">
         <v>37374</v>
       </c>
       <c r="P225" t="str">
@@ -18085,23 +18198,23 @@
       </c>
     </row>
     <row r="226" spans="1:16" ht="29.4" thickBot="1">
-      <c r="A226" s="61"/>
+      <c r="A226" s="64"/>
       <c r="B226" s="30" t="s">
         <v>1024</v>
       </c>
-      <c r="C226" s="61"/>
-      <c r="D226" s="63"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="63"/>
+      <c r="C226" s="64"/>
+      <c r="D226" s="60"/>
+      <c r="E226" s="68"/>
+      <c r="F226" s="60"/>
       <c r="G226" s="30"/>
-      <c r="H226" s="67"/>
-      <c r="I226" s="61"/>
-      <c r="J226" s="61"/>
-      <c r="K226" s="71"/>
-      <c r="L226" s="63"/>
-      <c r="M226" s="67"/>
-      <c r="N226" s="61"/>
-      <c r="O226" s="69"/>
+      <c r="H226" s="62"/>
+      <c r="I226" s="64"/>
+      <c r="J226" s="64"/>
+      <c r="K226" s="58"/>
+      <c r="L226" s="60"/>
+      <c r="M226" s="62"/>
+      <c r="N226" s="64"/>
+      <c r="O226" s="66"/>
       <c r="P226" t="str">
         <f t="shared" si="27"/>
         <v>{'district': 'Sivagangai', 'constituency_id': '', 'constituency_name': '(Sivaganga)', 'winner_party_2021': '', 'winner_alliance_id_2021': '', 'prediction_alliance_id_2026': -1},</v>
@@ -18202,23 +18315,23 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" thickBot="1">
-      <c r="A229" s="74" t="s">
+      <c r="A229" s="54" t="s">
         <v>1188</v>
       </c>
-      <c r="B229" s="75"/>
-      <c r="C229" s="75"/>
-      <c r="D229" s="75"/>
-      <c r="E229" s="75"/>
-      <c r="F229" s="75"/>
-      <c r="G229" s="75"/>
-      <c r="H229" s="75"/>
-      <c r="I229" s="75"/>
-      <c r="J229" s="75"/>
-      <c r="K229" s="75"/>
-      <c r="L229" s="75"/>
-      <c r="M229" s="75"/>
-      <c r="N229" s="75"/>
-      <c r="O229" s="76"/>
+      <c r="B229" s="55"/>
+      <c r="C229" s="55"/>
+      <c r="D229" s="55"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="55"/>
+      <c r="G229" s="55"/>
+      <c r="H229" s="55"/>
+      <c r="I229" s="55"/>
+      <c r="J229" s="55"/>
+      <c r="K229" s="55"/>
+      <c r="L229" s="55"/>
+      <c r="M229" s="55"/>
+      <c r="N229" s="55"/>
+      <c r="O229" s="56"/>
     </row>
     <row r="230" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A230" s="9">
@@ -18691,23 +18804,23 @@
       </c>
     </row>
     <row r="240" spans="1:16" ht="15" thickBot="1">
-      <c r="A240" s="74" t="s">
+      <c r="A240" s="54" t="s">
         <v>1189</v>
       </c>
-      <c r="B240" s="75"/>
-      <c r="C240" s="75"/>
-      <c r="D240" s="75"/>
-      <c r="E240" s="75"/>
-      <c r="F240" s="75"/>
-      <c r="G240" s="75"/>
-      <c r="H240" s="75"/>
-      <c r="I240" s="75"/>
-      <c r="J240" s="75"/>
-      <c r="K240" s="75"/>
-      <c r="L240" s="75"/>
-      <c r="M240" s="75"/>
-      <c r="N240" s="75"/>
-      <c r="O240" s="76"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="55"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="55"/>
+      <c r="G240" s="55"/>
+      <c r="H240" s="55"/>
+      <c r="I240" s="55"/>
+      <c r="J240" s="55"/>
+      <c r="K240" s="55"/>
+      <c r="L240" s="55"/>
+      <c r="M240" s="55"/>
+      <c r="N240" s="55"/>
+      <c r="O240" s="56"/>
     </row>
     <row r="241" spans="1:16" ht="43.8" thickBot="1">
       <c r="A241" s="9">
@@ -18898,23 +19011,23 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="15" thickBot="1">
-      <c r="A245" s="74" t="s">
+      <c r="A245" s="54" t="s">
         <v>1087</v>
       </c>
-      <c r="B245" s="75"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="75"/>
-      <c r="E245" s="75"/>
-      <c r="F245" s="75"/>
-      <c r="G245" s="75"/>
-      <c r="H245" s="75"/>
-      <c r="I245" s="75"/>
-      <c r="J245" s="75"/>
-      <c r="K245" s="75"/>
-      <c r="L245" s="75"/>
-      <c r="M245" s="75"/>
-      <c r="N245" s="75"/>
-      <c r="O245" s="76"/>
+      <c r="B245" s="55"/>
+      <c r="C245" s="55"/>
+      <c r="D245" s="55"/>
+      <c r="E245" s="55"/>
+      <c r="F245" s="55"/>
+      <c r="G245" s="55"/>
+      <c r="H245" s="55"/>
+      <c r="I245" s="55"/>
+      <c r="J245" s="55"/>
+      <c r="K245" s="55"/>
+      <c r="L245" s="55"/>
+      <c r="M245" s="55"/>
+      <c r="N245" s="55"/>
+      <c r="O245" s="56"/>
     </row>
     <row r="246" spans="1:16" ht="43.8" thickBot="1">
       <c r="A246" s="9">
@@ -19246,23 +19359,23 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="15" thickBot="1">
-      <c r="A253" s="74" t="s">
+      <c r="A253" s="54" t="s">
         <v>1102</v>
       </c>
-      <c r="B253" s="75"/>
-      <c r="C253" s="75"/>
-      <c r="D253" s="75"/>
-      <c r="E253" s="75"/>
-      <c r="F253" s="75"/>
-      <c r="G253" s="75"/>
-      <c r="H253" s="75"/>
-      <c r="I253" s="75"/>
-      <c r="J253" s="75"/>
-      <c r="K253" s="75"/>
-      <c r="L253" s="75"/>
-      <c r="M253" s="75"/>
-      <c r="N253" s="75"/>
-      <c r="O253" s="76"/>
+      <c r="B253" s="55"/>
+      <c r="C253" s="55"/>
+      <c r="D253" s="55"/>
+      <c r="E253" s="55"/>
+      <c r="F253" s="55"/>
+      <c r="G253" s="55"/>
+      <c r="H253" s="55"/>
+      <c r="I253" s="55"/>
+      <c r="J253" s="55"/>
+      <c r="K253" s="55"/>
+      <c r="L253" s="55"/>
+      <c r="M253" s="55"/>
+      <c r="N253" s="55"/>
+      <c r="O253" s="56"/>
     </row>
     <row r="254" spans="1:16" ht="58.2" thickBot="1">
       <c r="A254" s="9">
@@ -19453,23 +19566,23 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="15" thickBot="1">
-      <c r="A258" s="74" t="s">
+      <c r="A258" s="54" t="s">
         <v>1190</v>
       </c>
-      <c r="B258" s="75"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="75"/>
-      <c r="E258" s="75"/>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
-      <c r="I258" s="75"/>
-      <c r="J258" s="75"/>
-      <c r="K258" s="75"/>
-      <c r="L258" s="75"/>
-      <c r="M258" s="75"/>
-      <c r="N258" s="75"/>
-      <c r="O258" s="76"/>
+      <c r="B258" s="55"/>
+      <c r="C258" s="55"/>
+      <c r="D258" s="55"/>
+      <c r="E258" s="55"/>
+      <c r="F258" s="55"/>
+      <c r="G258" s="55"/>
+      <c r="H258" s="55"/>
+      <c r="I258" s="55"/>
+      <c r="J258" s="55"/>
+      <c r="K258" s="55"/>
+      <c r="L258" s="55"/>
+      <c r="M258" s="55"/>
+      <c r="N258" s="55"/>
+      <c r="O258" s="56"/>
     </row>
     <row r="259" spans="1:16" ht="43.8" thickBot="1">
       <c r="A259" s="9">
@@ -19754,23 +19867,23 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="15" thickBot="1">
-      <c r="A265" s="74" t="s">
+      <c r="A265" s="54" t="s">
         <v>1135</v>
       </c>
-      <c r="B265" s="75"/>
-      <c r="C265" s="75"/>
-      <c r="D265" s="75"/>
-      <c r="E265" s="75"/>
-      <c r="F265" s="75"/>
-      <c r="G265" s="75"/>
-      <c r="H265" s="75"/>
-      <c r="I265" s="75"/>
-      <c r="J265" s="75"/>
-      <c r="K265" s="75"/>
-      <c r="L265" s="75"/>
-      <c r="M265" s="75"/>
-      <c r="N265" s="75"/>
-      <c r="O265" s="76"/>
+      <c r="B265" s="55"/>
+      <c r="C265" s="55"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="55"/>
+      <c r="L265" s="55"/>
+      <c r="M265" s="55"/>
+      <c r="N265" s="55"/>
+      <c r="O265" s="56"/>
     </row>
     <row r="266" spans="1:16" ht="43.8" thickBot="1">
       <c r="A266" s="9">
@@ -20008,23 +20121,23 @@
       </c>
     </row>
     <row r="271" spans="1:16" ht="15" thickBot="1">
-      <c r="A271" s="74" t="s">
+      <c r="A271" s="54" t="s">
         <v>1141</v>
       </c>
-      <c r="B271" s="75"/>
-      <c r="C271" s="75"/>
-      <c r="D271" s="75"/>
-      <c r="E271" s="75"/>
-      <c r="F271" s="75"/>
-      <c r="G271" s="75"/>
-      <c r="H271" s="75"/>
-      <c r="I271" s="75"/>
-      <c r="J271" s="75"/>
-      <c r="K271" s="75"/>
-      <c r="L271" s="75"/>
-      <c r="M271" s="75"/>
-      <c r="N271" s="75"/>
-      <c r="O271" s="76"/>
+      <c r="B271" s="55"/>
+      <c r="C271" s="55"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="55"/>
+      <c r="L271" s="55"/>
+      <c r="M271" s="55"/>
+      <c r="N271" s="55"/>
+      <c r="O271" s="56"/>
     </row>
     <row r="272" spans="1:16" ht="43.8" thickBot="1">
       <c r="A272" s="9">
@@ -20262,23 +20375,23 @@
       </c>
     </row>
     <row r="277" spans="1:16" ht="15" thickBot="1">
-      <c r="A277" s="74" t="s">
+      <c r="A277" s="54" t="s">
         <v>1156</v>
       </c>
-      <c r="B277" s="75"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="75"/>
-      <c r="E277" s="75"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="75"/>
-      <c r="H277" s="75"/>
-      <c r="I277" s="75"/>
-      <c r="J277" s="75"/>
-      <c r="K277" s="75"/>
-      <c r="L277" s="75"/>
-      <c r="M277" s="75"/>
-      <c r="N277" s="75"/>
-      <c r="O277" s="76"/>
+      <c r="B277" s="55"/>
+      <c r="C277" s="55"/>
+      <c r="D277" s="55"/>
+      <c r="E277" s="55"/>
+      <c r="F277" s="55"/>
+      <c r="G277" s="55"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="55"/>
+      <c r="J277" s="55"/>
+      <c r="K277" s="55"/>
+      <c r="L277" s="55"/>
+      <c r="M277" s="55"/>
+      <c r="N277" s="55"/>
+      <c r="O277" s="56"/>
     </row>
     <row r="278" spans="1:16" ht="58.2" thickBot="1">
       <c r="A278" s="9">
@@ -20478,7 +20591,7 @@
       <c r="C282" s="9">
         <v>67.12</v>
       </c>
-      <c r="D282" s="72" t="s">
+      <c r="D282" s="53" t="s">
         <v>463</v>
       </c>
       <c r="E282" s="15"/>
@@ -20562,18 +20675,46 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A277:O277"/>
-    <mergeCell ref="A240:O240"/>
-    <mergeCell ref="A245:O245"/>
-    <mergeCell ref="A253:O253"/>
-    <mergeCell ref="A258:O258"/>
-    <mergeCell ref="A265:O265"/>
-    <mergeCell ref="A271:O271"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="N225:N226"/>
-    <mergeCell ref="O225:O226"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A137:O137"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A86:O86"/>
+    <mergeCell ref="A94:O94"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A118:O118"/>
+    <mergeCell ref="A122:O122"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A207:O207"/>
+    <mergeCell ref="A142:O142"/>
+    <mergeCell ref="A152:O152"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A163:O163"/>
+    <mergeCell ref="A168:O168"/>
+    <mergeCell ref="A178:O178"/>
+    <mergeCell ref="A181:O181"/>
+    <mergeCell ref="A184:O184"/>
+    <mergeCell ref="A194:O194"/>
+    <mergeCell ref="A198:O198"/>
+    <mergeCell ref="A202:O202"/>
     <mergeCell ref="A229:O229"/>
     <mergeCell ref="A216:O216"/>
     <mergeCell ref="A223:O223"/>
@@ -20585,46 +20726,18 @@
     <mergeCell ref="H225:H226"/>
     <mergeCell ref="I225:I226"/>
     <mergeCell ref="J225:J226"/>
-    <mergeCell ref="A181:O181"/>
-    <mergeCell ref="A184:O184"/>
-    <mergeCell ref="A194:O194"/>
-    <mergeCell ref="A198:O198"/>
-    <mergeCell ref="A202:O202"/>
-    <mergeCell ref="A207:O207"/>
-    <mergeCell ref="A142:O142"/>
-    <mergeCell ref="A152:O152"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A163:O163"/>
-    <mergeCell ref="A168:O168"/>
-    <mergeCell ref="A178:O178"/>
-    <mergeCell ref="A118:O118"/>
-    <mergeCell ref="A122:O122"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A131:O131"/>
-    <mergeCell ref="A135:O135"/>
-    <mergeCell ref="A137:O137"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A86:O86"/>
-    <mergeCell ref="A94:O94"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A64:O64"/>
-    <mergeCell ref="A53:O53"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="N225:N226"/>
+    <mergeCell ref="O225:O226"/>
+    <mergeCell ref="A277:O277"/>
+    <mergeCell ref="A240:O240"/>
+    <mergeCell ref="A245:O245"/>
+    <mergeCell ref="A253:O253"/>
+    <mergeCell ref="A258:O258"/>
+    <mergeCell ref="A265:O265"/>
+    <mergeCell ref="A271:O271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" tooltip="Thiruvallur district" display="https://en.wikipedia.org/wiki/Thiruvallur_district" xr:uid="{613E718D-5425-42A9-B9FC-8181A019F9AB}"/>
@@ -21693,4 +21806,844 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1063"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E204AD-CF22-4599-96B1-8EEF1B7FA86E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="78">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("{'party_id': '", A2, "', 'party_name': '", B2, "', 'alliance_id': ", C2, "},")</f>
+        <v>{'party_id': '1', 'party_name': 'DMK', 'alliance_id': 1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="78">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D13" si="0">CONCATENATE("{'party_id': '", A3, "', 'party_name': '", B3, "', 'alliance_id': ", C3, "},")</f>
+        <v>{'party_id': '2', 'party_name': 'INC', 'alliance_id': 1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="78">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '3', 'party_name': 'VCK', 'alliance_id': 1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="78">
+        <v>2</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '4', 'party_name': 'AIADMK', 'alliance_id': 2},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="78">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '5', 'party_name': 'CPI', 'alliance_id': 1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" s="78">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '6', 'party_name': 'PMK', 'alliance_id': 2},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>759</v>
+      </c>
+      <c r="C8" s="78">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '7', 'party_name': 'KMDK', 'alliance_id': 1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="78">
+        <v>2</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '8', 'party_name': 'BJP', 'alliance_id': 2},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>885</v>
+      </c>
+      <c r="C10" s="78">
+        <v>4</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '9', 'party_name': 'MNMK', 'alliance_id': 4},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="78">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '10', 'party_name': 'CPI(M)', 'alliance_id': 1},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C12" s="78">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '11', 'party_name': 'NTK', 'alliance_id': 4},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C13" s="78">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>{'party_id': '12', 'party_name': 'TVK', 'alliance_id': 3},</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B3" xr:uid="{B4E204AD-CF22-4599-96B1-8EEF1B7FA86E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03BDE55-7E15-4620-98A5-080584DF2711}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("{'district_id': '", A1, "', 'district_name': '", B1, "'},")</f>
+        <v>{'district_id': '1', 'district_name': 'Thiruvallur'},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C43" si="0">CONCATENATE("{'district_id': '", A2, "', 'district_name': '", B2, "'},")</f>
+        <v>{'district_id': '2', 'district_name': 'Chennai'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3">
+        <f t="shared" ref="A3:A43" si="1">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '3', 'district_name': 'Kancheepuram'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '4', 'district_name': 'Chengalpattu'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '5', 'district_name': 'Kancheepuram'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '6', 'district_name': 'Ranipet'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '7', 'district_name': 'Vellore'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '8', 'district_name': 'Tirupathur'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '9', 'district_name': 'Krishnagiri'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '10', 'district_name': 'Dharmapuri'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '11', 'district_name': 'Tiruvannamalai'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>696</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '12', 'district_name': 'Villupuram'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '13', 'district_name': 'Kallakurichi'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '14', 'district_name': 'Salem'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>751</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '15', 'district_name': 'Namakkal'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '16', 'district_name': 'Erode'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '17', 'district_name': 'Tiruppur'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '18', 'district_name': 'Erode'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '19', 'district_name': 'Nilgiris'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '20', 'district_name': 'Coimbatore'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '21', 'district_name': 'Tiruppur'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '22', 'district_name': 'Coimbatore'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '23', 'district_name': 'Tiruppur'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>865</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '24', 'district_name': 'Dindigul'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>874</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '25', 'district_name': 'Karur'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '26', 'district_name': 'Tiruchirappalli'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '27', 'district_name': 'Perambalur'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>917</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '28', 'district_name': 'Ariyalur'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>934</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '29', 'district_name': 'Cuddalore'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>952</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '30', 'district_name': 'Mayiladuthurai'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>958</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '31', 'district_name': 'Nagapattinam'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '32', 'district_name': 'Tiruvarur'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>991</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '33', 'district_name': 'Thanjavur'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '34', 'district_name': 'Pudukottai'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '35', 'district_name': 'Sivagangai'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '36', 'district_name': 'Madurai'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '37', 'district_name': 'Theni'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '38', 'district_name': 'Virudhunagar'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '39', 'district_name': 'Ramanathapuram'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '40', 'district_name': 'Thoothukudi'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '41', 'district_name': 'Tenkasi'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '42', 'district_name': 'Tirunelveli'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>{'district_id': '43', 'district_name': 'Kanniyakumari'},</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" tooltip="Thiruvallur district" display="https://en.wikipedia.org/wiki/Thiruvallur_district" xr:uid="{FB7D7551-74BB-4181-BAA5-2B61BC8FA7FE}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="Chennai district" display="https://en.wikipedia.org/wiki/Chennai_district" xr:uid="{A01AED34-8B0B-4D04-BCBB-68AE92CFDCAD}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="Kancheepuram district" display="https://en.wikipedia.org/wiki/Kancheepuram_district" xr:uid="{125727CA-9CCF-47E4-AEA7-2C27441610C8}"/>
+    <hyperlink ref="B4" r:id="rId4" tooltip="Chengalpattu district" display="https://en.wikipedia.org/wiki/Chengalpattu_district" xr:uid="{693BDEE8-CEFF-4CBD-A17B-577DC1416461}"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="Kancheepuram district" display="https://en.wikipedia.org/wiki/Kancheepuram_district" xr:uid="{7A52CEEB-8840-4A42-8BEF-790A6BC81CCE}"/>
+    <hyperlink ref="B6" r:id="rId6" tooltip="Ranipet district" display="https://en.wikipedia.org/wiki/Ranipet_district" xr:uid="{EC8EBEA5-3D45-4EB2-A9FD-8E689C80132C}"/>
+    <hyperlink ref="B7" r:id="rId7" tooltip="Vellore district" display="https://en.wikipedia.org/wiki/Vellore_district" xr:uid="{4AFCFDCF-5B02-491C-A3E5-08038048E7F3}"/>
+    <hyperlink ref="B8" r:id="rId8" tooltip="Tirupathur district" display="https://en.wikipedia.org/wiki/Tirupathur_district" xr:uid="{5DC33450-1DEA-4B79-B0FB-A793A7475E53}"/>
+    <hyperlink ref="B9" r:id="rId9" tooltip="Krishnagiri district" display="https://en.wikipedia.org/wiki/Krishnagiri_district" xr:uid="{1F7E0717-925E-4E94-B677-A44C903FADA0}"/>
+    <hyperlink ref="B10" r:id="rId10" tooltip="Dharmapuri District" display="https://en.wikipedia.org/wiki/Dharmapuri_District" xr:uid="{B8C35154-B1E5-40A5-BF8A-248555AB5A78}"/>
+    <hyperlink ref="B11" r:id="rId11" tooltip="Tiruvannamalai district" display="https://en.wikipedia.org/wiki/Tiruvannamalai_district" xr:uid="{3632DD55-747B-42F9-8681-C1DE705C854E}"/>
+    <hyperlink ref="B12" r:id="rId12" tooltip="Villupuram district" display="https://en.wikipedia.org/wiki/Villupuram_district" xr:uid="{0CB10FA5-A8BB-4346-954A-CB727A5627FC}"/>
+    <hyperlink ref="B13" r:id="rId13" tooltip="Kallakurichi district" display="https://en.wikipedia.org/wiki/Kallakurichi_district" xr:uid="{8F521B09-311A-4B30-A6E7-FF05A0C60636}"/>
+    <hyperlink ref="B14" r:id="rId14" tooltip="Salem district" display="https://en.wikipedia.org/wiki/Salem_district" xr:uid="{D5AB7690-0452-4304-B04C-EA033277A089}"/>
+    <hyperlink ref="B15" r:id="rId15" tooltip="Namakkal district" display="https://en.wikipedia.org/wiki/Namakkal_district" xr:uid="{5C89AAE6-EC6B-423A-8E8A-A30B95A363CA}"/>
+    <hyperlink ref="B16" r:id="rId16" tooltip="Erode district" display="https://en.wikipedia.org/wiki/Erode_district" xr:uid="{05C53728-906D-443D-BA57-FAB1107EE0C8}"/>
+    <hyperlink ref="B17" r:id="rId17" tooltip="Tiruppur district" display="https://en.wikipedia.org/wiki/Tiruppur_district" xr:uid="{CBDA5B34-5806-4B54-85D5-7016F2C26BDF}"/>
+    <hyperlink ref="B18" r:id="rId18" tooltip="Erode district" display="https://en.wikipedia.org/wiki/Erode_district" xr:uid="{BBAF9237-D713-4E32-A010-FC888D082B2E}"/>
+    <hyperlink ref="B19" r:id="rId19" tooltip="Nilgiris district" display="https://en.wikipedia.org/wiki/Nilgiris_district" xr:uid="{6B2B8121-7216-406F-97F1-A1E41D632663}"/>
+    <hyperlink ref="B20" r:id="rId20" tooltip="Coimbatore district" display="https://en.wikipedia.org/wiki/Coimbatore_district" xr:uid="{7E3B3FFE-66FB-409B-98CE-BDAFC6E0109E}"/>
+    <hyperlink ref="B21" r:id="rId21" tooltip="Tiruppur district" display="https://en.wikipedia.org/wiki/Tiruppur_district" xr:uid="{6503E9DF-F082-4B78-9BEE-E99F55421BE5}"/>
+    <hyperlink ref="B22" r:id="rId22" tooltip="Coimbatore district" display="https://en.wikipedia.org/wiki/Coimbatore_district" xr:uid="{8B16F22B-A8C3-415A-BA8B-7D5C99C1C2D7}"/>
+    <hyperlink ref="B23" r:id="rId23" tooltip="Tiruppur district" display="https://en.wikipedia.org/wiki/Tiruppur_district" xr:uid="{D50F5A1F-6D73-415F-8E49-9CDDA3A9A787}"/>
+    <hyperlink ref="B24" r:id="rId24" tooltip="Dindigul district" display="https://en.wikipedia.org/wiki/Dindigul_district" xr:uid="{FCA50E79-4CA8-44ED-B52D-2361CC906A42}"/>
+    <hyperlink ref="B25" r:id="rId25" tooltip="Karur district" display="https://en.wikipedia.org/wiki/Karur_district" xr:uid="{7D1FA2F3-54F8-482B-B6F0-32F811C1E907}"/>
+    <hyperlink ref="B26" r:id="rId26" tooltip="Tiruchirapalli district" display="https://en.wikipedia.org/wiki/Tiruchirapalli_district" xr:uid="{C17B61E7-4D8A-42AA-BA66-B5EDAC5E30FD}"/>
+    <hyperlink ref="B27" r:id="rId27" tooltip="Perambalur district" display="https://en.wikipedia.org/wiki/Perambalur_district" xr:uid="{0EC21C67-842D-4992-8AF5-6A970E2A12B8}"/>
+    <hyperlink ref="B28" r:id="rId28" tooltip="Ariyalur district" display="https://en.wikipedia.org/wiki/Ariyalur_district" xr:uid="{6DBB9EA9-616E-40E5-BBA0-F6920FD221E0}"/>
+    <hyperlink ref="B29" r:id="rId29" tooltip="Cuddalore district" display="https://en.wikipedia.org/wiki/Cuddalore_district" xr:uid="{4B5AE935-24C3-426C-906E-DC112454A7C9}"/>
+    <hyperlink ref="B30" r:id="rId30" tooltip="Mayiladuthurai district" display="https://en.wikipedia.org/wiki/Mayiladuthurai_district" xr:uid="{2A847864-12CB-4A74-A569-7DDBD2C64554}"/>
+    <hyperlink ref="B31" r:id="rId31" tooltip="Nagapattinam district" display="https://en.wikipedia.org/wiki/Nagapattinam_district" xr:uid="{9E053F99-D56B-4BAF-A88C-ADAE669D22BE}"/>
+    <hyperlink ref="B32" r:id="rId32" tooltip="Tiruvarur district" display="https://en.wikipedia.org/wiki/Tiruvarur_district" xr:uid="{6AF257CC-BFAB-41C7-BF4F-04E07842DDFF}"/>
+    <hyperlink ref="B33" r:id="rId33" tooltip="Thanjavur district" display="https://en.wikipedia.org/wiki/Thanjavur_district" xr:uid="{82DCC874-8726-4573-B7A8-8597DD3FC65F}"/>
+    <hyperlink ref="B34" r:id="rId34" tooltip="Pudukottai district" display="https://en.wikipedia.org/wiki/Pudukottai_district" xr:uid="{12F22E83-73B8-4973-A079-4E004C3D7874}"/>
+    <hyperlink ref="B35" r:id="rId35" tooltip="Sivaganga district" display="https://en.wikipedia.org/wiki/Sivaganga_district" xr:uid="{84C16917-EF3A-4BBA-8286-164869349AB1}"/>
+    <hyperlink ref="B36" r:id="rId36" tooltip="Madurai district" display="https://en.wikipedia.org/wiki/Madurai_district" xr:uid="{B8C34EF7-EFC5-4BD1-B9E2-EBA3CE84A244}"/>
+    <hyperlink ref="B37" r:id="rId37" tooltip="Theni district" display="https://en.wikipedia.org/wiki/Theni_district" xr:uid="{6B5CF962-5B2A-4B6C-B357-65D7E3763980}"/>
+    <hyperlink ref="B38" r:id="rId38" tooltip="Virudhunagar district" display="https://en.wikipedia.org/wiki/Virudhunagar_district" xr:uid="{0FA673CE-D297-4E0B-B8C7-7D71D1BF5FAB}"/>
+    <hyperlink ref="B39" r:id="rId39" tooltip="Ramanathapuram district" display="https://en.wikipedia.org/wiki/Ramanathapuram_district" xr:uid="{8FE69FA5-A7E6-49D5-893F-03A649574E7B}"/>
+    <hyperlink ref="B40" r:id="rId40" tooltip="Thoothukudi district" display="https://en.wikipedia.org/wiki/Thoothukudi_district" xr:uid="{0C47BCE7-F418-46A2-8053-80765B00A207}"/>
+    <hyperlink ref="B41" r:id="rId41" tooltip="Tenkasi district" display="https://en.wikipedia.org/wiki/Tenkasi_district" xr:uid="{B3510B01-9CC0-4399-97DC-999BF5F6268C}"/>
+    <hyperlink ref="B42" r:id="rId42" tooltip="Tirunelveli district" display="https://en.wikipedia.org/wiki/Tirunelveli_district" xr:uid="{837AE73F-4D8F-4C15-8010-B78B5637D815}"/>
+    <hyperlink ref="B43" r:id="rId43" tooltip="Kanniyakumari district" display="https://en.wikipedia.org/wiki/Kanniyakumari_district" xr:uid="{25CB1677-42C0-4880-A021-91A12D3D8B4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
+</worksheet>
 </file>